--- a/model_exports/labels/2.0_True_False_4_2.xlsx
+++ b/model_exports/labels/2.0_True_False_4_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C733"/>
+  <dimension ref="A1:C732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-729342722264420352</t>
+          <t>t-675691648802795522</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-793443964900737024</t>
+          <t>t-729342722264420352</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,20 +492,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-498854240069373953</t>
+          <t>t-1025792018793021440</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-498919835905327104</t>
+          <t>t-494463913853874176</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-500035862709948417</t>
+          <t>t-494829977268146176</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-500685725482770433</t>
+          <t>t-495010606047821824</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-501752547083059200</t>
+          <t>t-495017350790668289</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-571473938481602560</t>
+          <t>t-495805012929708033</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-610974241895354368</t>
+          <t>t-498854240069373953</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,11 +583,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-760665387113472001</t>
+          <t>t-498919835905327104</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -596,76 +596,76 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-760674522622152704</t>
+          <t>t-511851013155090432</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-763135506188206084</t>
+          <t>t-512006361937616896</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-763744681616257025</t>
+          <t>t-512017939579432960</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-764320260182806528</t>
+          <t>t-517204809452380161</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-977115036585021440</t>
+          <t>t-629748063494537216</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-575319219870437377</t>
+          <t>t-629757802915848193</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-575466667171426304</t>
+          <t>t-1016827484665499650</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -687,7 +687,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-681917420068564992</t>
+          <t>t-1016832637904695296</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -700,7 +700,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-682618491283857408</t>
+          <t>t-622509518346268672</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -713,24 +713,24 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-683960479224586240</t>
+          <t>t-681917420068564992</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-684033292694327296</t>
+          <t>t-682618491283857408</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -739,7 +739,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-684082364117585920</t>
+          <t>t-683960479224586240</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,11 +752,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-684154242035089408</t>
+          <t>t-684033292694327296</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -765,63 +765,63 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-693851248634810368</t>
+          <t>t-684082364117585920</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-694942679688437760</t>
+          <t>t-684154242035089408</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-695354495606259712</t>
+          <t>t-701855843747241986</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-696194593700712448</t>
+          <t>t-765195503457882112</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-765195503457882112</t>
+          <t>t-765297031346655232</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -830,11 +830,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-765297031346655232</t>
+          <t>t-771105696226025472</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-775697386924445696</t>
+          <t>t-865644367372967936</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,7 +856,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-858824188815056896</t>
+          <t>t-866152720700514304</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,7 +869,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-859408582407749634</t>
+          <t>t-918248158253273089</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,7 +882,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-859423315986874372</t>
+          <t>t-945777508007464961</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -895,7 +895,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-859882605604425731</t>
+          <t>t-950310866641149952</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,7 +908,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-875748360933847041</t>
+          <t>t-970872683402539011</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,20 +921,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-894637864561987584</t>
+          <t>t-977248381662892039</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-894643508547526657</t>
+          <t>t-977294782048428032</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,33 +947,33 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-894960674811596800</t>
+          <t>t-1006110887999045632</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-894974152540553216</t>
+          <t>t-1006321460951027717</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-894976401597763584</t>
+          <t>t-1018804138195513344</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,59 +986,59 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-895262760954736640</t>
+          <t>t-1018807229267496962</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-900539002423562240</t>
+          <t>t-1018819644377923585</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-900561270843334662</t>
+          <t>t-1018962868379750402</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-900690069668933632</t>
+          <t>t-1019003195874512897</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-918248158253273089</t>
+          <t>t-1019014466770333697</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1051,7 +1051,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-922305869466890240</t>
+          <t>t-1019698120098222080</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,37 +1064,37 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-973668678867746816</t>
+          <t>t-1022084644039258112</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-973683665661198337</t>
+          <t>t-1052350536111013888</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-832760057259384834</t>
+          <t>t-548492147645640704</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1103,20 +1103,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-832777578633064449</t>
+          <t>t-812540411746975744</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-875896081233567744</t>
+          <t>t-975411428663345152</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,20 +1129,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-975411428663345152</t>
+          <t>t-819315426853273600</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-754609055683915776</t>
+          <t>t-827438952974004224</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1155,46 +1155,46 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-827438952974004224</t>
+          <t>t-934407049034846208</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-503508088964800513</t>
+          <t>t-1024774127687749633</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-503608708635844608</t>
+          <t>t-1028077400779841537</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-573406774969044992</t>
+          <t>t-591245619513163777</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,20 +1207,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-573566918876995584</t>
+          <t>t-801687875939078144</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-574621995633111040</t>
+          <t>t-852681395487035392</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,85 +1233,85 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-685243474623336449</t>
+          <t>t-924921911510949890</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-753035409660186624</t>
+          <t>t-924939317381758976</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-754462771173924865</t>
+          <t>t-925210606361300992</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-852681395487035392</t>
+          <t>t-925257914817892352</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-958555465675362304</t>
+          <t>t-928952366598037506</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-976076558824767489</t>
+          <t>t-950256330316615680</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-992796128654524417</t>
+          <t>t-1015939762513956864</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1324,11 +1324,11 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-1061557072670670850</t>
+          <t>t-1049900608294137856</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -1337,20 +1337,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-1061559942140780544</t>
+          <t>t-506695122298212352</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-745595825670131714</t>
+          <t>t-612750086443917313</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,11 +1363,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-745600923448258560</t>
+          <t>t-788842589554343938</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -1376,20 +1376,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-979396065278427139</t>
+          <t>t-858084101320056832</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-618057796345593856</t>
+          <t>t-858490544007327747</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,7 +1402,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-639446444949180417</t>
+          <t>t-878279115006136321</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1415,7 +1415,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-717023541078728704</t>
+          <t>t-981152225723604993</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1428,24 +1428,24 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-752623570010812416</t>
+          <t>t-1006061673487138817</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-752689111933214722</t>
+          <t>t-745031440031694848</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-752696262009450496</t>
+          <t>t-824338590389960704</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1467,24 +1467,24 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-752724839081791488</t>
+          <t>t-917079758076370946</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-910574474956812289</t>
+          <t>t-767772450964725760</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -1493,7 +1493,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-962999495893176320</t>
+          <t>t-611854657594486784</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1506,7 +1506,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-511616761545121792</t>
+          <t>t-513123960192794624</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1519,7 +1519,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-512768543989825541</t>
+          <t>t-519554920140124160</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1532,33 +1532,33 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-587673014826741760</t>
+          <t>t-567811309744705538</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-587688170382163969</t>
+          <t>t-585851418843615232</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-1018620410819219456</t>
+          <t>t-623339394989166593</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1571,85 +1571,85 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-567811309744705538</t>
+          <t>t-1005217349610426371</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-585851418843615232</t>
+          <t>t-676490487717625856</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-770209564532674560</t>
+          <t>t-676517665188507650</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-781902339066191873</t>
+          <t>t-681802042885697536</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-836993229967015937</t>
+          <t>t-682128192019234816</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-837317730147713024</t>
+          <t>t-682147581405859841</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-840253641885913088</t>
+          <t>t-682223092198936576</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,37 +1662,37 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-878362748232622081</t>
+          <t>t-682287065824931840</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-1005217349610426371</t>
+          <t>t-682459381347254272</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-524878421172953088</t>
+          <t>t-682632199527641089</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-533211918698553344</t>
+          <t>t-682755737790099456</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,11 +1714,11 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-533272996883210240</t>
+          <t>t-682908634020470785</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1727,46 +1727,46 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-533345881412878336</t>
+          <t>t-682915879026339840</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-672497431242756096</t>
+          <t>t-683017640638582784</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-676490487717625856</t>
+          <t>t-683036658942513152</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-676517665188507650</t>
+          <t>t-683077568287866880</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1779,11 +1779,11 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-575924078906904576</t>
+          <t>t-683235960692314112</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
@@ -1792,63 +1792,63 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-871833381906067459</t>
+          <t>t-683258563628777472</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-926892709188702208</t>
+          <t>t-683386799184543745</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-1031843897373278208</t>
+          <t>t-683399457254326272</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-1047112720837951488</t>
+          <t>t-683602691965206528</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-1047367778901090304</t>
+          <t>t-683628764622905344</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1857,20 +1857,20 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-928583361618169856</t>
+          <t>t-683644184683753472</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-547652103607697408</t>
+          <t>t-683649428587155456</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,7 +1883,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-583930739512713216</t>
+          <t>t-683773064040050688</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1896,24 +1896,24 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-546995440701296643</t>
+          <t>t-683968472968228864</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-625832003070509056</t>
+          <t>t-683979793273065473</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -1922,46 +1922,46 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-626848405877301248</t>
+          <t>t-684007082555748352</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-873219337427062785</t>
+          <t>t-684323489562558465</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-876969646846603270</t>
+          <t>t-685408547975331840</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-992180383449014272</t>
+          <t>t-921072406919352320</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,11 +1974,11 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-992184677086777345</t>
+          <t>t-921102349552275456</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1987,20 +1987,20 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-1035595539918848000</t>
+          <t>t-921122924505026560</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-602966767602831362</t>
+          <t>t-921266455856939008</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2013,11 +2013,11 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-602969826642898945</t>
+          <t>t-921341244332113926</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -2026,11 +2026,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-603005702697713664</t>
+          <t>t-921699631360176128</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
@@ -2039,11 +2039,11 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-707957967094685696</t>
+          <t>t-843394427347320833</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -2052,11 +2052,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-821731492581744642</t>
+          <t>t-568441199297761281</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-821745652803764226</t>
+          <t>t-568878359158984704</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,20 +2078,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-720931143055491072</t>
+          <t>t-630358013853990912</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-590950091256631296</t>
+          <t>t-687545498014760960</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2104,20 +2104,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-1031211148908081152</t>
+          <t>t-743488475874353153</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-618586257753374720</t>
+          <t>t-743501818358042625</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,11 +2130,11 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-621245283935121408</t>
+          <t>t-915529742002135041</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-782264769742934016</t>
+          <t>t-915535227245776896</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2156,50 +2156,50 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-849724022598139904</t>
+          <t>t-1014948759934066688</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-886294080040423425</t>
+          <t>t-1042485319055155201</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-624561158788247552</t>
+          <t>t-928583361618169856</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-715573202714562561</t>
+          <t>t-760723550810628097</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
         <v>1</v>
@@ -2208,20 +2208,20 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-859838431719030785</t>
+          <t>t-560163999057448960</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-941641219024748544</t>
+          <t>t-758769139905204224</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,7 +2234,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-962803499766513664</t>
+          <t>t-568623295811194880</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2247,24 +2247,24 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-1003953189820010496</t>
+          <t>t-622526710358114306</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-681167053609283584</t>
+          <t>t-873219337427062785</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -2273,7 +2273,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-946987966475448325</t>
+          <t>t-912821640328773633</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2286,7 +2286,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-781685141211058176</t>
+          <t>t-985892254756884480</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2299,11 +2299,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-977485288892059648</t>
+          <t>t-1035595539918848000</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -2312,7 +2312,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-1029734360872771584</t>
+          <t>t-604735735154012160</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2325,46 +2325,46 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-1044637096198041600</t>
+          <t>t-658242856386187264</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-1050435927066198018</t>
+          <t>t-902218968345272321</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-507905858265960448</t>
+          <t>t-594613009575579649</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-514175192319680513</t>
+          <t>t-618586257753374720</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2377,24 +2377,24 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-911670405483651072</t>
+          <t>t-708373253648207873</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-997483790145589248</t>
+          <t>t-826760200636002305</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,37 +2403,37 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-997521947297710081</t>
+          <t>t-906974272832376832</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-737800453916897280</t>
+          <t>t-1001456003551031296</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-746718356405882880</t>
+          <t>t-715573202714562561</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
@@ -2442,11 +2442,11 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-794700824404430848</t>
+          <t>t-859838431719030785</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -2455,11 +2455,11 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-859901667361345536</t>
+          <t>t-681167053609283584</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -2468,59 +2468,59 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-870028367990599681</t>
+          <t>t-694715871097278464</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-905607663798636547</t>
+          <t>t-899745107900940288</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-906292765633515520</t>
+          <t>t-899747204986019844</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-906696780133388288</t>
+          <t>t-758205502480388096</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-907946100618907648</t>
+          <t>t-758575120290091008</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2533,46 +2533,46 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-911712205657317376</t>
+          <t>t-781685141211058176</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-925358435398488064</t>
+          <t>t-860527262709493760</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-952979792495816704</t>
+          <t>t-1042035586717110280</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-965598107676430336</t>
+          <t>t-1054403005032947712</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2585,20 +2585,20 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-1016477854391992320</t>
+          <t>t-910451192064614401</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-1026272267364253698</t>
+          <t>t-1021604631217164289</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2611,7 +2611,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-1028684190169149440</t>
+          <t>t-1021652512343031808</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2624,7 +2624,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-1028764502517592065</t>
+          <t>t-1021683870188503041</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2637,7 +2637,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-1035669454246563841</t>
+          <t>t-1021786238024527873</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,20 +2650,20 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-1052665207342944261</t>
+          <t>t-514175192319680513</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-1053196089317306368</t>
+          <t>t-863311681820258304</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2676,24 +2676,24 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-1053286918086103042</t>
+          <t>t-997483790145589248</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-1054369632671404032</t>
+          <t>t-997521947297710081</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
@@ -2702,20 +2702,20 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-593171698846830592</t>
+          <t>t-536338799517634560</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-611619605899939841</t>
+          <t>t-599936713796886528</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2728,11 +2728,11 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-628272138890252288</t>
+          <t>t-601913063172771840</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
@@ -2741,7 +2741,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-636611275666128896</t>
+          <t>t-602589391198900226</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,85 +2754,85 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-750893641632063488</t>
+          <t>t-660036667412082688</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-763041051426775040</t>
+          <t>t-660641499701489665</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-763066608868794368</t>
+          <t>t-682987194840150016</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-763135787424636928</t>
+          <t>t-735525963610660865</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-891394338445553666</t>
+          <t>t-736203598091190272</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-891401235391066112</t>
+          <t>t-745382805253677057</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-891671460804259840</t>
+          <t>t-752596726066843648</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,20 +2845,20 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-891695041609162754</t>
+          <t>t-753413745230094338</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-892069950281711617</t>
+          <t>t-820042974197334018</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2871,11 +2871,11 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-892901315642146816</t>
+          <t>t-858067034772566016</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -2884,11 +2884,11 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-897457481550618624</t>
+          <t>t-858109132586483713</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -2897,20 +2897,20 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-958376851084337153</t>
+          <t>t-870028367990599681</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-538650662780022784</t>
+          <t>t-913139045009633280</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2923,63 +2923,63 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-580289963599765504</t>
+          <t>t-913178067195088902</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-581999689727389696</t>
+          <t>t-913438297258708992</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-681483416165048320</t>
+          <t>t-952979792495816704</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-716748651113091072</t>
+          <t>t-956329812573945857</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-716774298296389632</t>
+          <t>t-1014570924681687042</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -2988,7 +2988,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-775760180936048640</t>
+          <t>t-1035669454246563841</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3001,7 +3001,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-775760740204552192</t>
+          <t>t-561309176475824128</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,37 +3014,37 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-775766510182731776</t>
+          <t>t-643122505524322304</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-775772257327128576</t>
+          <t>t-727306437798576130</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-775805122920189952</t>
+          <t>t-763041051426775040</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -3053,20 +3053,20 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-776165588917944320</t>
+          <t>t-763066608868794368</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-913153226706472965</t>
+          <t>t-763135787424636928</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3079,7 +3079,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-972048308909826048</t>
+          <t>t-1004794708802048002</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3092,20 +3092,20 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-1000764381108555776</t>
+          <t>t-1008536493269237760</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-1039508390869786629</t>
+          <t>t-619624637685755904</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -3118,7 +3118,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-1039553624345661440</t>
+          <t>t-655463817921626112</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3131,7 +3131,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-1039619721644191744</t>
+          <t>t-1050781684117987329</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3144,20 +3144,20 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-1049984041888505856</t>
+          <t>t-538650662780022784</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-1051063984038776837</t>
+          <t>t-577773253898477568</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,33 +3170,33 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-538818433920827392</t>
+          <t>t-577808831918579712</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-541450804008218624</t>
+          <t>t-605776092780044291</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-646786233809539072</t>
+          <t>t-651743798721122304</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,20 +3209,20 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-836430214368481288</t>
+          <t>t-739781293882347520</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-893162180492787716</t>
+          <t>t-775760180936048640</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -3235,33 +3235,33 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-670921727346614272</t>
+          <t>t-775760740204552192</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-769170271928483840</t>
+          <t>t-775766510182731776</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-821117207245713408</t>
+          <t>t-775772257327128576</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -3274,20 +3274,20 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-901071860456185856</t>
+          <t>t-775805122920189952</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-578199507671904256</t>
+          <t>t-776165588917944320</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3300,20 +3300,20 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-578943021716250624</t>
+          <t>t-799654742746165248</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-649689751415599105</t>
+          <t>t-802968858214760448</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -3326,20 +3326,20 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-803598066133573632</t>
+          <t>t-802970857136123904</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-697026011876233216</t>
+          <t>t-802986234171768832</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3352,7 +3352,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-698124151282864129</t>
+          <t>t-802996470555279360</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3365,20 +3365,20 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-698267386730975232</t>
+          <t>t-803023904860151808</t>
         </is>
       </c>
       <c r="B226" t="n">
         <v>1</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-698288943490535428</t>
+          <t>t-803063479473176576</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,7 +3391,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-698457478183301120</t>
+          <t>t-803165461336555521</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,7 +3404,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-698469723680464897</t>
+          <t>t-803184972723081216</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-698599200850898944</t>
+          <t>t-803191488880513024</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,7 +3430,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-698812315353903104</t>
+          <t>t-803213114628014080</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3443,7 +3443,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-778893752471543808</t>
+          <t>t-803415757417758721</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,24 +3456,24 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-778933660334559232</t>
+          <t>t-804486553280069633</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-992126872036233224</t>
+          <t>t-841637693608071170</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -3482,37 +3482,37 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-993085432052273153</t>
+          <t>t-894936422980964352</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-571711350180868097</t>
+          <t>t-913153226706472965</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-615316042294890496</t>
+          <t>t-972048308909826048</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -3521,20 +3521,20 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-645024639639535616</t>
+          <t>t-984477965856772096</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-648439576441171968</t>
+          <t>t-984491425478971393</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -3547,24 +3547,24 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-649621017187512320</t>
+          <t>t-984517270725644288</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-741029103147442176</t>
+          <t>t-985567499843489798</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -3573,33 +3573,33 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-783130241195585536</t>
+          <t>t-1006258184636510210</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-783135151601704960</t>
+          <t>t-1026228357996969984</t>
         </is>
       </c>
       <c r="B243" t="n">
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-787849177581649920</t>
+          <t>t-1041944531015483392</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,33 +3612,33 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-850359691771293697</t>
+          <t>t-1042049144620285953</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-900702851202207746</t>
+          <t>t-1061999891080232961</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-572732322178572288</t>
+          <t>t-1063070010954932224</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3651,11 +3651,11 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-572748274618277888</t>
+          <t>t-1063412203389370368</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
         <v>1</v>
@@ -3664,7 +3664,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-572762505111580673</t>
+          <t>t-1063455159370637313</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,33 +3677,33 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-573486943880638464</t>
+          <t>t-1063463128409800704</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-925720058432811008</t>
+          <t>t-1063508201319079936</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-771375628176072704</t>
+          <t>t-1063552348386140165</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -3716,20 +3716,20 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-960911174505238534</t>
+          <t>t-538818433920827392</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-1033036271491461120</t>
+          <t>t-541450804008218624</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3742,7 +3742,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-1057298961642471425</t>
+          <t>t-659041979200880644</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -3755,7 +3755,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-579030352271917056</t>
+          <t>t-817123537488084993</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -3768,20 +3768,20 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-579089809991331841</t>
+          <t>t-1026494793466048518</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-1042391419745435648</t>
+          <t>t-655077150693990401</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3794,24 +3794,24 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-599007393494605824</t>
+          <t>t-727758683510329344</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-599125027116568576</t>
+          <t>t-727889856274247680</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" t="n">
         <v>1</v>
@@ -3820,24 +3820,24 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-601584910428729344</t>
+          <t>t-946151169231114241</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-640921153591050240</t>
+          <t>t-581325099023892480</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
         <v>1</v>
@@ -3846,20 +3846,20 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-765721842803802112</t>
+          <t>t-581326319130116096</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-766980130283610112</t>
+          <t>t-581406863343779840</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,11 +3872,11 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-860258475883937792</t>
+          <t>t-581587820248109056</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
@@ -3885,7 +3885,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-878774409280016384</t>
+          <t>t-755764875155083264</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3898,11 +3898,11 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-912188711261036544</t>
+          <t>t-686490326228402176</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" t="n">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-912397778260840448</t>
+          <t>t-687307828932030464</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,33 +3924,33 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-912428211253972997</t>
+          <t>t-697026011876233216</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-1047259835777990656</t>
+          <t>t-698124151282864129</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-771587937746071552</t>
+          <t>t-698267386730975232</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3963,7 +3963,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-1055172080499515392</t>
+          <t>t-698288943490535428</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3976,7 +3976,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-1055204302220943368</t>
+          <t>t-698457478183301120</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,20 +3989,20 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-677918822104473600</t>
+          <t>t-698469723680464897</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-653702331221999616</t>
+          <t>t-698599200850898944</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4015,37 +4015,37 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-876856640372387842</t>
+          <t>t-698812315353903104</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-678946767459618818</t>
+          <t>t-573292412430376960</t>
         </is>
       </c>
       <c r="B277" t="n">
         <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-679082878148341760</t>
+          <t>t-862378347007025154</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -4054,11 +4054,11 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-904587230177443840</t>
+          <t>t-981529575271337984</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -4067,7 +4067,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-905072243822264320</t>
+          <t>t-637980934705422337</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4080,7 +4080,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-905081971667296257</t>
+          <t>t-659011315088781312</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -4093,11 +4093,11 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-905280030833614849</t>
+          <t>t-659473740955189248</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C282" t="n">
         <v>1</v>
@@ -4106,7 +4106,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-661127792231321600</t>
+          <t>t-741029103147442176</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -4119,7 +4119,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-922944953696899072</t>
+          <t>t-787849177581649920</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,11 +4132,11 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-922950403255341056</t>
+          <t>t-924289234399322112</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -4145,37 +4145,37 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-922959565792083968</t>
+          <t>t-1042410099652919297</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-677631116958896129</t>
+          <t>t-1012441483654332417</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-867110157813075968</t>
+          <t>t-686862688752807937</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
         <v>1</v>
@@ -4184,7 +4184,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-867380655289761792</t>
+          <t>t-839501967894405121</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4197,7 +4197,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-867711994765471750</t>
+          <t>t-839604530048299008</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4210,20 +4210,20 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-867724212827545601</t>
+          <t>t-884636889948471296</t>
         </is>
       </c>
       <c r="B291" t="n">
         <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-868084138674454528</t>
+          <t>t-893133071528202241</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4236,20 +4236,20 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-868161755167547394</t>
+          <t>t-1052977443760427009</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-868563701057679360</t>
+          <t>t-821077876112035840</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4262,24 +4262,24 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-869251443236249600</t>
+          <t>t-821090113476325376</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-869321042807988224</t>
+          <t>t-822759706078969856</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C296" t="n">
         <v>1</v>
@@ -4288,11 +4288,11 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-869576732906532865</t>
+          <t>t-822817083591446532</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C297" t="n">
         <v>1</v>
@@ -4301,7 +4301,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-736405703838044160</t>
+          <t>t-837738761547091968</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,33 +4314,33 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-842138233173626880</t>
+          <t>t-1042391419745435648</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-842141623454687232</t>
+          <t>t-601384798897115138</t>
         </is>
       </c>
       <c r="B300" t="n">
         <v>1</v>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-842494366820286465</t>
+          <t>t-603639937368469504</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -4353,59 +4353,59 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-846003285282697216</t>
+          <t>t-604106567907057664</t>
         </is>
       </c>
       <c r="B302" t="n">
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-715468390047961088</t>
+          <t>t-605045307844337664</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-859881873865973760</t>
+          <t>t-724222646435508224</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-859891336627048448</t>
+          <t>t-765721842803802112</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-859891655167664129</t>
+          <t>t-766980130283610112</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4418,11 +4418,11 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-931989476401926144</t>
+          <t>t-872233585960337408</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C307" t="n">
         <v>1</v>
@@ -4431,63 +4431,63 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-939871571342249985</t>
+          <t>t-878774409280016384</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-981289690258071552</t>
+          <t>t-1049990926406492160</t>
         </is>
       </c>
       <c r="B309" t="n">
         <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-744360846420107265</t>
+          <t>t-629437596280750080</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-761251305100902400</t>
+          <t>t-636961984953630720</t>
         </is>
       </c>
       <c r="B311" t="n">
         <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-1035527464511053825</t>
+          <t>t-680032445673148416</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C312" t="n">
         <v>1</v>
@@ -4496,20 +4496,20 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-880159202567753728</t>
+          <t>t-646419866795118592</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-911704954636824576</t>
+          <t>t-895489338364055553</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -4522,20 +4522,20 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-1016293496980955136</t>
+          <t>t-876856640372387842</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-913112779548176384</t>
+          <t>t-655890642334257152</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -4548,20 +4548,20 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-922899400032178176</t>
+          <t>t-667518003613818880</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-922934157185110016</t>
+          <t>t-668278058953084928</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,11 +4574,11 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-779013669589884928</t>
+          <t>t-803284826191171584</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C319" t="n">
         <v>1</v>
@@ -4587,33 +4587,33 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-965898424523591681</t>
+          <t>t-720246081364365312</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-864828748495020032</t>
+          <t>t-720295493985677312</t>
         </is>
       </c>
       <c r="B321" t="n">
         <v>1</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-804685877838565376</t>
+          <t>t-859881873865973760</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -4626,20 +4626,20 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-812266777711431682</t>
+          <t>t-859891336627048448</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-850470638624133120</t>
+          <t>t-859891655167664129</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -4652,72 +4652,72 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-855194797681897472</t>
+          <t>t-749466819581411328</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-855248575567147008</t>
+          <t>t-751197637794230272</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-849301263959420929</t>
+          <t>t-1046763431649574912</t>
         </is>
       </c>
       <c r="B327" t="n">
         <v>1</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-1047617270736936962</t>
+          <t>t-913112779548176384</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-877327075954245633</t>
+          <t>t-998557475266859013</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-966639239407525888</t>
+          <t>t-999117713749495808</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -4730,20 +4730,20 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-907371676148670465</t>
+          <t>t-895778141523894272</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-1042065710745309186</t>
+          <t>t-1032899444918898688</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,11 +4756,11 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-1043080309376466944</t>
+          <t>t-996488939933401088</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
@@ -4769,7 +4769,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-1043179210905464832</t>
+          <t>t-788788619779665920</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,11 +4782,11 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-1042831980822454273</t>
+          <t>t-812266777711431682</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -4795,7 +4795,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-1042864703981084672</t>
+          <t>t-814665332673703936</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,7 +4808,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-1042868533963776005</t>
+          <t>t-814669018061803521</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4821,20 +4821,20 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-1043255346553389058</t>
+          <t>t-823317212446556161</t>
         </is>
       </c>
       <c r="B338" t="n">
         <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-499943241962487808</t>
+          <t>t-850470638624133120</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -4847,11 +4847,11 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-519240969838166016</t>
+          <t>t-857651953928744960</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C340" t="n">
         <v>1</v>
@@ -4860,20 +4860,20 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-527207598521843712</t>
+          <t>t-939854628749004801</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-527210275955818496</t>
+          <t>t-906573891346165760</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -4886,33 +4886,33 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-527591945795690496</t>
+          <t>t-1026649986782650369</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-621860106481762304</t>
+          <t>t-1034597062573211651</t>
         </is>
       </c>
       <c r="B344" t="n">
         <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-850388688303529986</t>
+          <t>t-912214251749744641</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,24 +4925,24 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-850540226590253057</t>
+          <t>t-999404160775872512</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-965605976698126341</t>
+          <t>t-527207598521843712</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347" t="n">
         <v>1</v>
@@ -4951,33 +4951,33 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-989520576460001280</t>
+          <t>t-527210275955818496</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-1019582623679696898</t>
+          <t>t-527591945795690496</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-1040961500553388033</t>
+          <t>t-630691491766251520</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,11 +4990,11 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-513212132176175105</t>
+          <t>t-673357306764140544</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
         <v>1</v>
@@ -5003,20 +5003,20 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-519370037812277248</t>
+          <t>t-702986489890775040</t>
         </is>
       </c>
       <c r="B352" t="n">
         <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-517603456123944960</t>
+          <t>t-703410728628305920</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -5029,63 +5029,63 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-517609652138569728</t>
+          <t>t-859937675339497473</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-518412519053221888</t>
+          <t>t-952288702339997696</t>
         </is>
       </c>
       <c r="B355" t="n">
         <v>1</v>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-519245102263574528</t>
+          <t>t-952549733930885120</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-519387709392314368</t>
+          <t>t-952956945098473472</t>
         </is>
       </c>
       <c r="B357" t="n">
         <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-519393743326441472</t>
+          <t>t-519370037812277248</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C358" t="n">
         <v>1</v>
@@ -5094,11 +5094,11 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-519395800687083520</t>
+          <t>t-517603456123944960</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C359" t="n">
         <v>1</v>
@@ -5107,7 +5107,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-519401695307390976</t>
+          <t>t-517609652138569728</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -5120,7 +5120,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-635439309563260929</t>
+          <t>t-518412519053221888</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -5133,20 +5133,20 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-635461097114484736</t>
+          <t>t-519245102263574528</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-635467880918818816</t>
+          <t>t-519387709392314368</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -5159,24 +5159,24 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-635469518022803456</t>
+          <t>t-519393743326441472</t>
         </is>
       </c>
       <c r="B364" t="n">
         <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-635491308438728704</t>
+          <t>t-519395800687083520</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C365" t="n">
         <v>1</v>
@@ -5185,7 +5185,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-635718998781390848</t>
+          <t>t-519401695307390976</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5198,20 +5198,20 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-636228687013265410</t>
+          <t>t-927168021512126464</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-650288114116730880</t>
+          <t>t-950172807996026880</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -5224,7 +5224,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-652079150321270784</t>
+          <t>t-950367246299394048</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -5237,7 +5237,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-652171720393101312</t>
+          <t>t-517992573227778048</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -5250,7 +5250,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-824672856466423809</t>
+          <t>t-750337554457694208</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -5263,27 +5263,27 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-517992573227778048</t>
+          <t>t-635444360306368512</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-522926675542421504</t>
+          <t>t-801681235982557184</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -5302,11 +5302,11 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-800968114653401088</t>
+          <t>t-737154199411122176</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -5315,20 +5315,20 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-738708820491259904</t>
+          <t>t-644488507239628800</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-738754856811417601</t>
+          <t>t-644488513442983937</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,11 +5341,11 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-738830571351224320</t>
+          <t>t-676099835372654592</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C378" t="n">
         <v>1</v>
@@ -5354,50 +5354,50 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-739181708906467329</t>
+          <t>t-819866466162012160</t>
         </is>
       </c>
       <c r="B379" t="n">
         <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-1051891605035241474</t>
+          <t>t-865447859285405696</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-595190714205634560</t>
+          <t>t-865573879527428096</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-634983488203177984</t>
+          <t>t-960182659325493248</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
@@ -5406,11 +5406,11 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-653264904581984256</t>
+          <t>t-737049601983840256</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C383" t="n">
         <v>1</v>
@@ -5419,46 +5419,46 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-653992755027386368</t>
+          <t>t-737149037674147840</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-691624168824115200</t>
+          <t>t-737191991822409729</t>
         </is>
       </c>
       <c r="B385" t="n">
         <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-691706624386404353</t>
+          <t>t-737354227509518336</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-737049601983840256</t>
+          <t>t-737535367486676992</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,7 +5471,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-737149037674147840</t>
+          <t>t-737536409473421313</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -5484,24 +5484,24 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-737191991822409729</t>
+          <t>t-737576761286787074</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-737354227509518336</t>
+          <t>t-737578269373960195</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -5510,20 +5510,20 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-737535367486676992</t>
+          <t>t-737714265268834304</t>
         </is>
       </c>
       <c r="B391" t="n">
         <v>1</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-737536409473421313</t>
+          <t>t-737924468329328640</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,7 +5536,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-737576761286787074</t>
+          <t>t-737947084494622720</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,33 +5549,33 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-737578269373960195</t>
+          <t>t-738026122630332416</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-737714265268834304</t>
+          <t>t-738039322344075265</t>
         </is>
       </c>
       <c r="B395" t="n">
         <v>1</v>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-737924468329328640</t>
+          <t>t-738045153693335552</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,11 +5588,11 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-737947084494622720</t>
+          <t>t-738399731303514112</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C397" t="n">
         <v>1</v>
@@ -5601,20 +5601,20 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-738026122630332416</t>
+          <t>t-738417134443859970</t>
         </is>
       </c>
       <c r="B398" t="n">
         <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-738039322344075265</t>
+          <t>t-738432094909698048</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -5627,33 +5627,33 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-738045153693335552</t>
+          <t>t-738465959694860289</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-738399731303514112</t>
+          <t>t-738495271307513856</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-738417134443859970</t>
+          <t>t-738626782371426304</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -5666,7 +5666,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-738432094909698048</t>
+          <t>t-738645010103603200</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -5679,11 +5679,11 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-738465959694860289</t>
+          <t>t-738707246943719426</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C404" t="n">
         <v>0</v>
@@ -5692,33 +5692,33 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-738495271307513856</t>
+          <t>t-738992446231719937</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-738626782371426304</t>
+          <t>t-739020531689721856</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-738645010103603200</t>
+          <t>t-739105047078948864</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -5731,24 +5731,24 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-738707246943719426</t>
+          <t>t-739154724495228928</t>
         </is>
       </c>
       <c r="B408" t="n">
         <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-738992446231719937</t>
+          <t>t-739161314166214656</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C409" t="n">
         <v>1</v>
@@ -5757,7 +5757,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-739020531689721856</t>
+          <t>t-739753236761055232</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -5770,7 +5770,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-739105047078948864</t>
+          <t>t-739763139001094144</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -5783,7 +5783,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-739154724495228928</t>
+          <t>t-739766081125011456</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -5796,7 +5796,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-739161314166214656</t>
+          <t>t-739840205935546368</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -5809,37 +5809,37 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-739753236761055232</t>
+          <t>t-739892598974861314</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-739763139001094144</t>
+          <t>t-740068412177715200</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-739766081125011456</t>
+          <t>t-740070843053662208</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C416" t="n">
         <v>1</v>
@@ -5848,11 +5848,11 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-739840205935546368</t>
+          <t>t-740092206627880960</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C417" t="n">
         <v>1</v>
@@ -5861,24 +5861,24 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-739892598974861314</t>
+          <t>t-740465124390080515</t>
         </is>
       </c>
       <c r="B418" t="n">
         <v>1</v>
       </c>
       <c r="C418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-740068412177715200</t>
+          <t>t-740535202582253568</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C419" t="n">
         <v>1</v>
@@ -5887,7 +5887,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-740070843053662208</t>
+          <t>t-740538191267106816</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -5900,37 +5900,37 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-740092206627880960</t>
+          <t>t-741179165198536704</t>
         </is>
       </c>
       <c r="B421" t="n">
         <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-740465124390080515</t>
+          <t>t-842006165705875457</t>
         </is>
       </c>
       <c r="B422" t="n">
         <v>1</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-740535202582253568</t>
+          <t>t-962342450219094016</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -5939,46 +5939,46 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-740538191267106816</t>
+          <t>t-962358038081523713</t>
         </is>
       </c>
       <c r="B424" t="n">
         <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-741179165198536704</t>
+          <t>t-962393573927870466</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-884135398854635520</t>
+          <t>t-976509689000325120</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-884163532958441472</t>
+          <t>t-1006399568249008128</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -5991,7 +5991,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-884173621224239104</t>
+          <t>t-1006422910762995712</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6004,7 +6004,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-884176826679136256</t>
+          <t>t-1006422931839299584</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -6017,7 +6017,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-884179431887167489</t>
+          <t>t-1006427045709180929</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -6030,37 +6030,37 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-884282035384320001</t>
+          <t>t-1006463635693203456</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-884290062598451200</t>
+          <t>t-1024937575906271233</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-884310032518664194</t>
+          <t>t-750337802257129474</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433" t="n">
         <v>0</v>
@@ -6069,11 +6069,11 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-884325033430200320</t>
+          <t>t-846728089912643588</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -6082,33 +6082,33 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-954338199610019841</t>
+          <t>t-557320938375905282</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-954407598069084160</t>
+          <t>t-831105804946247681</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-954798702530412546</t>
+          <t>t-958216984176427008</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -6121,59 +6121,59 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-955111272852414464</t>
+          <t>t-996477889779511296</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-955374632034594816</t>
+          <t>t-962370594363838464</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-955380505121259520</t>
+          <t>t-987343892633747456</t>
         </is>
       </c>
       <c r="B440" t="n">
         <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-955409675251482624</t>
+          <t>t-1048216558785449986</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-955739643634421760</t>
+          <t>t-567369806647951362</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -6186,7 +6186,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-955742558189162496</t>
+          <t>t-567639888489500672</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,59 +6199,59 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-955766281730445313</t>
+          <t>t-979424136656125952</t>
         </is>
       </c>
       <c r="B444" t="n">
         <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-955807241533304833</t>
+          <t>t-1000392026742034432</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-956101750120857601</t>
+          <t>t-1000411846237675521</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-956220929067151360</t>
+          <t>t-1000414273863069696</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-956413340225589248</t>
+          <t>t-1000416714763505664</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -6264,7 +6264,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-956438932681523200</t>
+          <t>t-778479315071664128</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -6277,7 +6277,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-956447631714279424</t>
+          <t>t-1024201138277638144</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -6290,46 +6290,46 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-956464588559671297</t>
+          <t>t-859839256700882944</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-956513066228834304</t>
+          <t>t-860843222091935744</t>
         </is>
       </c>
       <c r="B452" t="n">
         <v>1</v>
       </c>
       <c r="C452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-965524750264135680</t>
+          <t>t-861496628741640192</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-966320851678318593</t>
+          <t>t-742289179535659008</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -6342,50 +6342,50 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-967380419707535360</t>
+          <t>t-743359058392940544</t>
         </is>
       </c>
       <c r="B455" t="n">
         <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-977899948724379649</t>
+          <t>t-741661270017970176</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-981811338774183936</t>
+          <t>t-801458708786151425</t>
         </is>
       </c>
       <c r="B457" t="n">
         <v>0</v>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-982165823350423552</t>
+          <t>t-594549643134009344</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C458" t="n">
         <v>1</v>
@@ -6394,7 +6394,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-1001548678748954624</t>
+          <t>t-955539710214057984</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,11 +6407,11 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-1001557802375110657</t>
+          <t>t-955816204769390593</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C460" t="n">
         <v>1</v>
@@ -6420,24 +6420,24 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-1038002421543391232</t>
+          <t>t-800696529770151938</t>
         </is>
       </c>
       <c r="B461" t="n">
         <v>0</v>
       </c>
       <c r="C461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-1060529365962948608</t>
+          <t>t-605693478799065088</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C462" t="n">
         <v>1</v>
@@ -6446,11 +6446,11 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-653928809671081984</t>
+          <t>t-605727874348384256</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C463" t="n">
         <v>1</v>
@@ -6459,7 +6459,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-552766016325840896</t>
+          <t>t-605802486604046337</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -6472,7 +6472,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-623733200322449409</t>
+          <t>t-605842449722777601</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -6485,33 +6485,33 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-629936150220685312</t>
+          <t>t-605899935117017088</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-820214611416928256</t>
+          <t>t-776349771640496128</t>
         </is>
       </c>
       <c r="B467" t="n">
         <v>0</v>
       </c>
       <c r="C467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-828957006832795648</t>
+          <t>t-940349476509814789</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,7 +6524,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-888058781363580930</t>
+          <t>t-612221773757681664</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -6537,20 +6537,20 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-917052938425716736</t>
+          <t>t-615666964451606528</t>
         </is>
       </c>
       <c r="B470" t="n">
         <v>1</v>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-917054284579078144</t>
+          <t>t-615728570888003584</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -6563,7 +6563,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-917061971631108097</t>
+          <t>t-760350969154723840</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -6576,7 +6576,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-917080429227778048</t>
+          <t>t-997420355043102720</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,11 +6589,11 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-917105709682216960</t>
+          <t>t-769927127475097602</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C474" t="n">
         <v>1</v>
@@ -6602,24 +6602,24 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-570990543225950209</t>
+          <t>t-849766480828878849</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-731437259828924417</t>
+          <t>t-1008697922366689285</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C476" t="n">
         <v>1</v>
@@ -6628,46 +6628,46 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-865160167155003392</t>
+          <t>t-1032956238051659778</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-970012076428193796</t>
+          <t>t-1038016191711928321</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-1006487935733174274</t>
+          <t>t-1038359113791680512</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-660085012306395136</t>
+          <t>t-1006630570447777793</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -6680,7 +6680,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-722410262058397697</t>
+          <t>t-880072530329038848</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -6693,20 +6693,20 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-760176410539528192</t>
+          <t>t-1056610127975997440</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-742289179535659008</t>
+          <t>t-656869699980955649</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -6719,33 +6719,33 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-743359058392940544</t>
+          <t>t-657672314465726464</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-957917970390450177</t>
+          <t>t-663799425475731457</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-737572670372339712</t>
+          <t>t-859792354395533312</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -6758,7 +6758,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-743692015158726656</t>
+          <t>t-860626885302202369</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -6771,7 +6771,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-743726128003588096</t>
+          <t>t-861365904025714688</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,20 +6784,20 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-801458708786151425</t>
+          <t>t-861657024731467783</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-728815708801531904</t>
+          <t>t-861897864632578048</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -6810,11 +6810,11 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-728860742099849216</t>
+          <t>t-862094425949917185</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C491" t="n">
         <v>0</v>
@@ -6823,24 +6823,24 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-955539710214057984</t>
+          <t>t-862663540179701760</t>
         </is>
       </c>
       <c r="B492" t="n">
         <v>0</v>
       </c>
       <c r="C492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-955816204769390593</t>
+          <t>t-666556746308198401</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C493" t="n">
         <v>1</v>
@@ -6849,7 +6849,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-608642817427156992</t>
+          <t>t-671784280259866624</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,85 +6862,85 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-608880570362437632</t>
+          <t>t-704826129178370050</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-612221773757681664</t>
+          <t>t-952055483354972160</t>
         </is>
       </c>
       <c r="B496" t="n">
         <v>1</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-1021061872274018305</t>
+          <t>t-734423204488445952</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-618340855657721856</t>
+          <t>t-953202460994232320</t>
         </is>
       </c>
       <c r="B498" t="n">
         <v>0</v>
       </c>
       <c r="C498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-740216200379158528</t>
+          <t>t-953212881809518592</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-740233298862080000</t>
+          <t>t-737558350011867138</t>
         </is>
       </c>
       <c r="B500" t="n">
         <v>1</v>
       </c>
       <c r="C500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-740234615814819840</t>
+          <t>t-738417908926320643</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -6953,7 +6953,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-740250007081766912</t>
+          <t>t-738664460173381632</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -6966,7 +6966,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-740302081416962049</t>
+          <t>t-737669645872795648</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -6979,46 +6979,46 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-899696948046856192</t>
+          <t>t-890865444307042304</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-642781966346010625</t>
+          <t>t-957301618868965376</t>
         </is>
       </c>
       <c r="B505" t="n">
         <v>1</v>
       </c>
       <c r="C505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-643095780228771840</t>
+          <t>t-1003603539539742720</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-643795122480631808</t>
+          <t>t-737766517157330945</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,7 +7031,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-650407824212660224</t>
+          <t>t-737944067741454336</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,20 +7044,20 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-650415832523255809</t>
+          <t>t-952868151414403072</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-650581180757073921</t>
+          <t>t-956210090935312384</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -7070,7 +7070,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-650584856162926592</t>
+          <t>t-956914853922459649</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -7083,7 +7083,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-650605489492000769</t>
+          <t>t-957307123943256064</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,24 +7096,24 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-664402656019005440</t>
+          <t>t-949338992599883776</t>
         </is>
       </c>
       <c r="B513" t="n">
         <v>0</v>
       </c>
       <c r="C513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-660041764225589248</t>
+          <t>t-949550500269166593</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C514" t="n">
         <v>0</v>
@@ -7122,7 +7122,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-859792354395533312</t>
+          <t>t-958391208602193920</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7135,20 +7135,20 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-860626885302202369</t>
+          <t>t-738762935133188098</t>
         </is>
       </c>
       <c r="B516" t="n">
         <v>1</v>
       </c>
       <c r="C516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-861365904025714688</t>
+          <t>t-902928093131808770</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -7161,20 +7161,20 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-861657024731467783</t>
+          <t>t-906057103172923392</t>
         </is>
       </c>
       <c r="B518" t="n">
         <v>1</v>
       </c>
       <c r="C518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-861897864632578048</t>
+          <t>t-743445326611251200</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -7187,72 +7187,72 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-862094425949917185</t>
+          <t>t-1041726034662633472</t>
         </is>
       </c>
       <c r="B520" t="n">
         <v>0</v>
       </c>
       <c r="C520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-862663540179701760</t>
+          <t>t-775632377695600641</t>
         </is>
       </c>
       <c r="B521" t="n">
         <v>0</v>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-974126323248586752</t>
+          <t>t-801835115894755328</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-784413747376893952</t>
+          <t>t-831171283400409088</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-1005827335977885696</t>
+          <t>t-834314501134614528</t>
         </is>
       </c>
       <c r="B524" t="n">
         <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-698444957653278721</t>
+          <t>t-834984907881525249</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -7265,72 +7265,72 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-952055483354972160</t>
+          <t>t-862319925528023040</t>
         </is>
       </c>
       <c r="B526" t="n">
         <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-781871738888065024</t>
+          <t>t-862320640791121920</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-720951969716809728</t>
+          <t>t-952289558770651136</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-734423204488445952</t>
+          <t>t-952536637413584897</t>
         </is>
       </c>
       <c r="B529" t="n">
         <v>1</v>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-956932857389309953</t>
+          <t>t-952649290148704259</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-957576777848717312</t>
+          <t>t-952989314534617088</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -7343,11 +7343,11 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-741709377703411712</t>
+          <t>t-990385513898094592</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C532" t="n">
         <v>1</v>
@@ -7356,7 +7356,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-1062323949680373760</t>
+          <t>t-852898298344099840</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -7369,7 +7369,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-949613613874077704</t>
+          <t>t-886643817893560320</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -7382,11 +7382,11 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-884308996835991554</t>
+          <t>t-905976569503592449</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C535" t="n">
         <v>0</v>
@@ -7395,33 +7395,33 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-933719239126642689</t>
+          <t>t-906394228602949632</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-958391208602193920</t>
+          <t>t-906936222282547201</t>
         </is>
       </c>
       <c r="B537" t="n">
         <v>1</v>
       </c>
       <c r="C537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-738250548865032192</t>
+          <t>t-906965286787710976</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -7434,33 +7434,33 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-738751926372827136</t>
+          <t>t-907173357510184965</t>
         </is>
       </c>
       <c r="B539" t="n">
         <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-897405884489506816</t>
+          <t>t-907196691270569985</t>
         </is>
       </c>
       <c r="B540" t="n">
         <v>1</v>
       </c>
       <c r="C540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-902928093131808770</t>
+          <t>t-906119454941171712</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -7473,33 +7473,33 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-1002274254954647552</t>
+          <t>t-949248780280516608</t>
         </is>
       </c>
       <c r="B542" t="n">
         <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-1002283218085863430</t>
+          <t>t-956067919263346688</t>
         </is>
       </c>
       <c r="B543" t="n">
         <v>1</v>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-743445326611251200</t>
+          <t>t-956083408882536448</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -7512,63 +7512,63 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-952704809529851906</t>
+          <t>t-1003659615115141120</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-766238666905747456</t>
+          <t>t-1017566472292495360</t>
         </is>
       </c>
       <c r="B546" t="n">
         <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-775632377695600641</t>
+          <t>t-1051774073523634182</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-827575866729361408</t>
+          <t>t-1052071039923044352</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-834802174559412225</t>
+          <t>t-1052145118726238209</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C549" t="n">
         <v>0</v>
@@ -7577,11 +7577,11 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-834314501134614528</t>
+          <t>t-1052182549513035776</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C550" t="n">
         <v>0</v>
@@ -7590,20 +7590,20 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-852898298344099840</t>
+          <t>t-898971629665099776</t>
         </is>
       </c>
       <c r="B551" t="n">
         <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-854059785049788419</t>
+          <t>t-956368490293800960</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,20 +7616,20 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-861335479475634176</t>
+          <t>t-956387965382610945</t>
         </is>
       </c>
       <c r="B553" t="n">
         <v>1</v>
       </c>
       <c r="C553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-946052034461040640</t>
+          <t>t-556228745443282944</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,20 +7642,20 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-887813365304705024</t>
+          <t>t-572446866039697408</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-970932114597335040</t>
+          <t>t-575891615593721856</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,11 +7668,11 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-1003659615115141120</t>
+          <t>t-579789832131575808</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C557" t="n">
         <v>1</v>
@@ -7681,50 +7681,50 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-1003736255149027328</t>
+          <t>t-580874616324943872</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-495525926722367488</t>
+          <t>t-666134929525178369</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-675498810152325120</t>
+          <t>t-666141677652848640</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-786169556586770432</t>
+          <t>t-666146479564681217</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C561" t="n">
         <v>1</v>
@@ -7733,76 +7733,76 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-845604671851057152</t>
+          <t>t-666155143696506880</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-529938272265703424</t>
+          <t>t-666158894691954689</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-549142719973445632</t>
+          <t>t-666536410439028736</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-549750044099088384</t>
+          <t>t-666602420022194177</t>
         </is>
       </c>
       <c r="B565" t="n">
         <v>1</v>
       </c>
       <c r="C565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-549858427787153410</t>
+          <t>t-666664955077242881</t>
         </is>
       </c>
       <c r="B566" t="n">
         <v>0</v>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-549861279825817601</t>
+          <t>t-667221889505296388</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C567" t="n">
         <v>1</v>
@@ -7811,7 +7811,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-643644357350948864</t>
+          <t>t-667625624421445632</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -7824,7 +7824,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-697436431816355840</t>
+          <t>t-667976594137350144</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -7837,40 +7837,40 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-697627864380809216</t>
+          <t>t-668796235004932096</t>
         </is>
       </c>
       <c r="B570" t="n">
         <v>0</v>
       </c>
       <c r="C570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-698371050527023104</t>
+          <t>t-669882207800942593</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-698770244375093249</t>
+          <t>t-730666173340209152</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
@@ -7889,11 +7889,11 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-755613145079484416</t>
+          <t>t-788186519307563010</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C574" t="n">
         <v>1</v>
@@ -7902,7 +7902,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-790900222368976896</t>
+          <t>t-798050241861840896</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -7915,7 +7915,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-790909371781746688</t>
+          <t>t-798099061475684352</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -7928,7 +7928,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-791594802844434434</t>
+          <t>t-815395045314560000</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -7941,7 +7941,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-806863559212679168</t>
+          <t>t-815855888129028096</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -7954,11 +7954,11 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-831833976029454338</t>
+          <t>t-815865821570289668</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C579" t="n">
         <v>1</v>
@@ -7967,11 +7967,11 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-865948979183222784</t>
+          <t>t-815882427159678976</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C580" t="n">
         <v>1</v>
@@ -7980,50 +7980,50 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-935721877053505536</t>
+          <t>t-815960345336545280</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-950179252325859328</t>
+          <t>t-816280699388841984</t>
         </is>
       </c>
       <c r="B582" t="n">
         <v>1</v>
       </c>
       <c r="C582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-950592034162774021</t>
+          <t>t-852554541803417600</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-950680110948007937</t>
+          <t>t-854250685419986949</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C584" t="n">
         <v>1</v>
@@ -8032,11 +8032,11 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-951371471217090560</t>
+          <t>t-854262837673246720</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C585" t="n">
         <v>1</v>
@@ -8045,11 +8045,11 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-952033538005716993</t>
+          <t>t-865948979183222784</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C586" t="n">
         <v>1</v>
@@ -8058,11 +8058,11 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-952059671258447872</t>
+          <t>t-921445800072298496</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C587" t="n">
         <v>1</v>
@@ -8071,20 +8071,20 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-952061652182028289</t>
+          <t>t-922085813818658816</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-952118349386850304</t>
+          <t>t-925890248541794304</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -8097,7 +8097,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-953168990901284865</t>
+          <t>t-930305225726054400</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -8110,20 +8110,20 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-511340405753786369</t>
+          <t>t-944057571853287424</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-762938358486052865</t>
+          <t>t-782517721938300928</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -8136,46 +8136,46 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-871870603011043328</t>
+          <t>t-823758777857908736</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-872126007855038464</t>
+          <t>t-823809561622695937</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-503088287381082112</t>
+          <t>t-823868915621052416</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-519137345065320448</t>
+          <t>t-824113067696930816</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -8188,7 +8188,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-533912579676975104</t>
+          <t>t-824154025864167424</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -8201,33 +8201,33 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-545488523856338944</t>
+          <t>t-824160171534467072</t>
         </is>
       </c>
       <c r="B598" t="n">
         <v>1</v>
       </c>
       <c r="C598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-561132509098827778</t>
+          <t>t-825053893184753664</t>
         </is>
       </c>
       <c r="B599" t="n">
         <v>1</v>
       </c>
       <c r="C599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-573022010348982272</t>
+          <t>t-825136994833428480</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,11 +8240,11 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-581777426016956417</t>
+          <t>t-825930607427416064</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C601" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-659219094017708032</t>
+          <t>t-864437375618830336</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -8266,7 +8266,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-713640428369612800</t>
+          <t>t-914680114595602432</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,7 +8279,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-713641932795215874</t>
+          <t>t-532513757776183296</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -8292,7 +8292,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-713645035460251648</t>
+          <t>t-536372518622212096</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,7 +8305,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-713649642907406336</t>
+          <t>t-536830333530804225</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,7 +8318,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-713682083688767488</t>
+          <t>t-536843974086897664</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-714598783724597248</t>
+          <t>t-546829406539243520</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,20 +8344,20 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-714729459107119104</t>
+          <t>t-546846288554500096</t>
         </is>
       </c>
       <c r="B609" t="n">
         <v>1</v>
       </c>
       <c r="C609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-715080311059517440</t>
+          <t>t-547603292180578305</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,7 +8370,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-727080149770866688</t>
+          <t>t-547621920103862272</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,7 +8383,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-733931111152123906</t>
+          <t>t-547636294059184128</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,7 +8396,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-734714075603718144</t>
+          <t>t-547637054578769920</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -8409,7 +8409,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-734767651981905921</t>
+          <t>t-561132509098827778</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,7 +8422,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-735043937040093185</t>
+          <t>t-571610231173599232</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,33 +8435,33 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-740813200766214144</t>
+          <t>t-581777426016956417</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-756020759726727169</t>
+          <t>t-587184590302814208</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-828522614863785984</t>
+          <t>t-587194258815221760</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,7 +8474,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-834984646416842753</t>
+          <t>t-587194893052747777</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,7 +8487,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-834986851718946816</t>
+          <t>t-605261202822807552</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-835051963096121344</t>
+          <t>t-605672293654654976</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,11 +8513,11 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-839825336552468480</t>
+          <t>t-645905787584274433</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C622" t="n">
         <v>1</v>
@@ -8526,24 +8526,24 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-1036192189947281408</t>
+          <t>t-645928760433246209</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-578162074741661696</t>
+          <t>t-645952188204761088</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C624" t="n">
         <v>1</v>
@@ -8552,7 +8552,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-756176490119647232</t>
+          <t>t-646249606892797957</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,33 +8565,33 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-783478326421704704</t>
+          <t>t-671487099355426816</t>
         </is>
       </c>
       <c r="B626" t="n">
         <v>1</v>
       </c>
       <c r="C626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-830849870890102784</t>
+          <t>t-671928198360391680</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-830867426568867840</t>
+          <t>t-672328618379362304</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,7 +8604,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-555289784240054272</t>
+          <t>t-673050773710839808</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,11 +8617,11 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-555290912268750848</t>
+          <t>t-674612681832140800</t>
         </is>
       </c>
       <c r="B630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C630" t="n">
         <v>1</v>
@@ -8630,11 +8630,11 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-555447424768954368</t>
+          <t>t-732021013433724928</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C631" t="n">
         <v>1</v>
@@ -8643,11 +8643,11 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-678547534269177856</t>
+          <t>t-732494989838540800</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C632" t="n">
         <v>1</v>
@@ -8656,7 +8656,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-768634144851013633</t>
+          <t>t-732496065941798912</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,46 +8669,46 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-769506262551715840</t>
+          <t>t-764804167068024832</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-1000752833484881921</t>
+          <t>t-769774311968079872</t>
         </is>
       </c>
       <c r="B635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-1001352081465212928</t>
+          <t>t-789409624138985476</t>
         </is>
       </c>
       <c r="B636" t="n">
         <v>1</v>
       </c>
       <c r="C636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-696949735576489985</t>
+          <t>t-789409631646785537</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,7 +8721,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-697001638108598272</t>
+          <t>t-796319752176009216</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-757366725759242240</t>
+          <t>t-796346157156864001</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-757494302339571712</t>
+          <t>t-796369433241403393</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,7 +8760,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-757771911346749441</t>
+          <t>t-796693709639168001</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,7 +8773,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-757882635976790016</t>
+          <t>t-797722245741223936</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -8786,7 +8786,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-758521629890650113</t>
+          <t>t-797729987348418561</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,7 +8799,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-971295308981383168</t>
+          <t>t-797771440128860162</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,46 +8812,46 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-791933405902442497</t>
+          <t>t-797771478930366464</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-740483903366926337</t>
+          <t>t-797792110535528448</t>
         </is>
       </c>
       <c r="B646" t="n">
         <v>1</v>
       </c>
       <c r="C646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-801391859083988993</t>
+          <t>t-798105876364029953</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-825956164366172160</t>
+          <t>t-799522784040849408</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,7 +8864,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-825956302023163905</t>
+          <t>t-828522614863785984</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,7 +8877,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-825967811814125568</t>
+          <t>t-857545859868708865</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,46 +8890,46 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-825983840988467200</t>
+          <t>t-922601399271112704</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-830684745323327488</t>
+          <t>t-924905228415193088</t>
         </is>
       </c>
       <c r="B652" t="n">
         <v>0</v>
       </c>
       <c r="C652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-919610638351003649</t>
+          <t>t-960348165114273792</t>
         </is>
       </c>
       <c r="B653" t="n">
         <v>1</v>
       </c>
       <c r="C653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-919611818183503872</t>
+          <t>t-973099299910250497</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,11 +8942,11 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-919614704967757825</t>
+          <t>t-586217765666623488</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C655" t="n">
         <v>1</v>
@@ -8955,20 +8955,20 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-919712337681985537</t>
+          <t>t-706405441522143232</t>
         </is>
       </c>
       <c r="B656" t="n">
         <v>1</v>
       </c>
       <c r="C656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-919728404907167744</t>
+          <t>t-830849870890102784</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -8981,7 +8981,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-919751765871886336</t>
+          <t>t-830867426568867840</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,33 +8994,33 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-919766847666274304</t>
+          <t>t-934049646694998016</t>
         </is>
       </c>
       <c r="B659" t="n">
         <v>1</v>
       </c>
       <c r="C659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-919943414766063617</t>
+          <t>t-550981789649735680</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-920179252292739072</t>
+          <t>t-592295516517502976</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,33 +9033,33 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-920416544319926272</t>
+          <t>t-664725934935707650</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-703773712068116482</t>
+          <t>t-678547534269177856</t>
         </is>
       </c>
       <c r="B663" t="n">
         <v>1</v>
       </c>
       <c r="C663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-703855663269556224</t>
+          <t>t-795674749028462592</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,11 +9072,11 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-703940411761389571</t>
+          <t>t-802829831633108992</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C665" t="n">
         <v>1</v>
@@ -9085,20 +9085,20 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-833843048253681665</t>
+          <t>t-929369497420685312</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-834648744150892546</t>
+          <t>t-989542585978052610</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,33 +9111,33 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-919103523458969600</t>
+          <t>t-1000752833484881921</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-547033780322455552</t>
+          <t>t-1001352081465212928</t>
         </is>
       </c>
       <c r="B669" t="n">
         <v>1</v>
       </c>
       <c r="C669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-547601049230782464</t>
+          <t>t-551339874838908928</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,20 +9150,20 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-548131100095442945</t>
+          <t>t-525880451999617025</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-550823263941574657</t>
+          <t>t-716900054133399553</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,37 +9176,37 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-803451448700780544</t>
+          <t>t-836878014587744257</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-803454039333556224</t>
+          <t>t-545394272619331584</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-803455995494027264</t>
+          <t>t-685036854010339328</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C675" t="n">
         <v>0</v>
@@ -9215,11 +9215,11 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-803466221962215424</t>
+          <t>t-699788036561743872</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C676" t="n">
         <v>0</v>
@@ -9228,7 +9228,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-803470959600467968</t>
+          <t>t-852718859765202945</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,7 +9241,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-815040393884467200</t>
+          <t>t-852739972473868290</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -9254,33 +9254,33 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-924811540154540032</t>
+          <t>t-702026039967531008</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-924943312192073729</t>
+          <t>t-737185619730780161</t>
         </is>
       </c>
       <c r="B680" t="n">
         <v>1</v>
       </c>
       <c r="C680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-670770027604213760</t>
+          <t>t-764336375894306816</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,63 +9293,63 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-540776934658277377</t>
+          <t>t-764417813717086208</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-702026039967531008</t>
+          <t>t-779194196724887553</t>
         </is>
       </c>
       <c r="B683" t="n">
         <v>0</v>
       </c>
       <c r="C683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-708854826730295296</t>
+          <t>t-930711486019854336</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-709944298301628416</t>
+          <t>t-931775243361779712</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-715026472285708288</t>
+          <t>t-964122358905823232</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C686" t="n">
         <v>1</v>
@@ -9358,7 +9358,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-801652200724451332</t>
+          <t>t-966989390873378816</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,11 +9371,11 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-930711486019854336</t>
+          <t>t-544020486527528960</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C688" t="n">
         <v>1</v>
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-931775243361779712</t>
+          <t>t-544801968703557632</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,7 +9397,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-567587172367077376</t>
+          <t>t-607931728045338625</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-577656940282540032</t>
+          <t>t-547361002212188160</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-820399938416754688</t>
+          <t>t-823731915236708352</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-823731915236708352</t>
+          <t>t-796490215078711296</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-1039555557609201664</t>
+          <t>t-824143990274588672</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-796490215078711296</t>
+          <t>t-966644863226732544</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,7 +9475,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-857803058968838144</t>
+          <t>t-966649635170238465</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,24 +9488,24 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-857867986841079808</t>
+          <t>t-984973285124222976</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-966644863226732544</t>
+          <t>t-993018034288705536</t>
         </is>
       </c>
       <c r="B698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C698" t="n">
         <v>1</v>
@@ -9514,7 +9514,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-966649635170238465</t>
+          <t>t-555130566706622465</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,11 +9527,11 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-550867696435200000</t>
+          <t>t-658189046523412480</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C700" t="n">
         <v>1</v>
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-550870336418234368</t>
+          <t>t-697434910303264773</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,7 +9553,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-550963305326862336</t>
+          <t>t-935764445632061440</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,24 +9566,24 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-551099005388599297</t>
+          <t>t-962542177514500096</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-551184362054500352</t>
+          <t>t-701328466483027968</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C704" t="n">
         <v>1</v>
@@ -9592,20 +9592,20 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-801684041787273216</t>
+          <t>t-563242661562576896</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-814411097864159233</t>
+          <t>t-564304402253508608</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -9618,11 +9618,11 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-814414402203983872</t>
+          <t>t-580384120221487104</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C707" t="n">
         <v>1</v>
@@ -9631,24 +9631,24 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-814417111921479680</t>
+          <t>t-729180420265279489</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-814418757657296896</t>
+          <t>t-729281192772542465</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C709" t="n">
         <v>1</v>
@@ -9657,33 +9657,33 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-814543705935736832</t>
+          <t>t-754793839844397056</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-941530453147836416</t>
+          <t>t-757432883531304960</t>
         </is>
       </c>
       <c r="B711" t="n">
         <v>0</v>
       </c>
       <c r="C711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-697434910303264773</t>
+          <t>t-775600763481436160</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,20 +9696,20 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-839272244895309824</t>
+          <t>t-795497536291094528</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-935764445632061440</t>
+          <t>t-870645957704265729</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,37 +9722,37 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-950566545595551745</t>
+          <t>t-870651401311014912</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-754793839844397056</t>
+          <t>t-905053100729356288</t>
         </is>
       </c>
       <c r="B716" t="n">
         <v>0</v>
       </c>
       <c r="C716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-761430337377349632</t>
+          <t>t-950713527123066881</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C717" t="n">
         <v>1</v>
@@ -9761,7 +9761,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-775600763481436160</t>
+          <t>t-579242361768677376</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,11 +9774,11 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-905053100729356288</t>
+          <t>t-674136729771577344</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C719" t="n">
         <v>1</v>
@@ -9787,11 +9787,11 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-950713527123066881</t>
+          <t>t-702366811925438465</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C720" t="n">
         <v>1</v>
@@ -9800,7 +9800,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-605944627380817920</t>
+          <t>t-765452831297970176</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,7 +9813,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-802066289527095297</t>
+          <t>t-639809419102937088</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,20 +9826,20 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-802114052063252481</t>
+          <t>t-685863458978443264</t>
         </is>
       </c>
       <c r="B723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-819830340390830081</t>
+          <t>t-820218394255339521</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,20 +9852,20 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-863292024522395649</t>
+          <t>t-737450472194211841</t>
         </is>
       </c>
       <c r="B725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-590978217546092544</t>
+          <t>t-737498199435317252</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-640851401892065280</t>
+          <t>t-785264263749308416</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,20 +9891,20 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-792051379564969985</t>
+          <t>t-785310124797669377</t>
         </is>
       </c>
       <c r="B728" t="n">
         <v>1</v>
       </c>
       <c r="C728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-675601382867537920</t>
+          <t>t-785316828025421824</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-676436379425894400</t>
+          <t>t-785325402981924866</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-683203716623646720</t>
+          <t>t-785347096031268864</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,26 +9943,13 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-685863458978443264</t>
+          <t>t-833891988315336704</t>
         </is>
       </c>
       <c r="B732" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C732" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>t-833891988315336704</t>
-        </is>
-      </c>
-      <c r="B733" t="n">
-        <v>1</v>
-      </c>
-      <c r="C733" t="n">
         <v>1</v>
       </c>
     </row>
